--- a/Excel File/11_01_2016_Cleveland.xlsx
+++ b/Excel File/11_01_2016_Cleveland.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jxbaby/Desktop/DV Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhixi\Documents\GitHub\17S_DataVisFinal\Excel File\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="458" windowWidth="25598" windowHeight="14558" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="58">
   <si>
     <t>#</t>
   </si>
@@ -167,13 +168,49 @@
   <si>
     <t>Team</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jae Crowder</t>
+  </si>
+  <si>
+    <t>Al Horford</t>
+  </si>
+  <si>
+    <t>Kelly Olynyk</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>BLk</t>
+  </si>
+  <si>
+    <t>pts</t>
+  </si>
+  <si>
+    <t>ast</t>
+  </si>
+  <si>
+    <t>tov</t>
+  </si>
+  <si>
+    <t>reb</t>
+  </si>
+  <si>
+    <t>stl</t>
+  </si>
+  <si>
+    <t>Bos</t>
+  </si>
+  <si>
+    <t>Cle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -208,6 +245,31 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -230,7 +292,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -238,16 +300,24 @@
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -518,16 +588,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -574,7 +644,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>44</v>
       </c>
@@ -621,7 +691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>13</v>
       </c>
@@ -668,7 +738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -715,7 +785,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>36</v>
       </c>
@@ -762,7 +832,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>12</v>
       </c>
@@ -809,7 +879,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>55</v>
       </c>
@@ -856,7 +926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>90</v>
       </c>
@@ -903,7 +973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -950,7 +1020,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>30</v>
       </c>
@@ -997,7 +1067,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -1044,7 +1114,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -1091,7 +1161,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
         <v>44</v>
@@ -1112,7 +1182,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="F14" s="1">
         <v>89.5</v>
       </c>
@@ -1144,7 +1214,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1156,7 +1226,7 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -1203,7 +1273,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>23</v>
       </c>
@@ -1250,7 +1320,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -1297,7 +1367,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>5</v>
       </c>
@@ -1344,7 +1414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>13</v>
       </c>
@@ -1391,7 +1461,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>3</v>
       </c>
@@ -1438,7 +1508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>8</v>
       </c>
@@ -1485,7 +1555,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>24</v>
       </c>
@@ -1532,7 +1602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>1</v>
       </c>
@@ -1579,7 +1649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>14</v>
       </c>
@@ -1626,7 +1696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>12</v>
       </c>
@@ -1673,7 +1743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>4</v>
       </c>
@@ -1720,7 +1790,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>45</v>
       </c>
@@ -1728,7 +1798,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
       <c r="F29" s="1">
         <v>107.4</v>
       </c>
@@ -1763,30 +1833,1841 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
-    <hyperlink ref="B10" r:id="rId9"/>
-    <hyperlink ref="B11" r:id="rId10"/>
-    <hyperlink ref="B12" r:id="rId11"/>
+    <hyperlink ref="B27" r:id="rId1"/>
+    <hyperlink ref="B26" r:id="rId2"/>
+    <hyperlink ref="B25" r:id="rId3"/>
+    <hyperlink ref="B24" r:id="rId4"/>
+    <hyperlink ref="B23" r:id="rId5"/>
+    <hyperlink ref="B22" r:id="rId6"/>
+    <hyperlink ref="B21" r:id="rId7"/>
+    <hyperlink ref="B20" r:id="rId8"/>
+    <hyperlink ref="B19" r:id="rId9"/>
+    <hyperlink ref="B18" r:id="rId10"/>
+    <hyperlink ref="B17" r:id="rId11"/>
     <hyperlink ref="B16" r:id="rId12"/>
-    <hyperlink ref="B17" r:id="rId13"/>
-    <hyperlink ref="B18" r:id="rId14"/>
-    <hyperlink ref="B19" r:id="rId15"/>
-    <hyperlink ref="B20" r:id="rId16"/>
-    <hyperlink ref="B21" r:id="rId17"/>
-    <hyperlink ref="B22" r:id="rId18"/>
-    <hyperlink ref="B23" r:id="rId19"/>
-    <hyperlink ref="B24" r:id="rId20"/>
-    <hyperlink ref="B25" r:id="rId21"/>
-    <hyperlink ref="B26" r:id="rId22"/>
-    <hyperlink ref="B27" r:id="rId23"/>
+    <hyperlink ref="B12" r:id="rId13"/>
+    <hyperlink ref="B11" r:id="rId14"/>
+    <hyperlink ref="B10" r:id="rId15"/>
+    <hyperlink ref="B9" r:id="rId16"/>
+    <hyperlink ref="B8" r:id="rId17"/>
+    <hyperlink ref="B7" r:id="rId18"/>
+    <hyperlink ref="B6" r:id="rId19"/>
+    <hyperlink ref="B5" r:id="rId20"/>
+    <hyperlink ref="B4" r:id="rId21"/>
+    <hyperlink ref="B3" r:id="rId22"/>
+    <hyperlink ref="B2" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7:Q12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="10.8203125" style="8"/>
+    <col min="2" max="2" width="16" style="8" customWidth="1"/>
+    <col min="3" max="16384" width="10.8203125" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A2" s="10">
+        <v>44</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="10">
+        <v>10</v>
+      </c>
+      <c r="F2" s="10">
+        <v>6</v>
+      </c>
+      <c r="G2" s="10">
+        <v>0</v>
+      </c>
+      <c r="H2" s="10">
+        <v>2</v>
+      </c>
+      <c r="I2" s="10">
+        <v>0</v>
+      </c>
+      <c r="J2" s="10">
+        <v>11</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="M2" s="8">
+        <v>42</v>
+      </c>
+      <c r="N2" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="O2" s="8">
+        <v>3</v>
+      </c>
+      <c r="P2" s="8">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A3" s="10">
+        <v>13</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0</v>
+      </c>
+      <c r="J3" s="10">
+        <v>0</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="10">
+        <v>0</v>
+      </c>
+      <c r="M3" s="8">
+        <v>28</v>
+      </c>
+      <c r="N3" s="8">
+        <v>2</v>
+      </c>
+      <c r="O3" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="P3" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A4" s="10">
+        <v>4</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="10">
+        <v>3</v>
+      </c>
+      <c r="F4" s="10">
+        <v>6</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0</v>
+      </c>
+      <c r="I4" s="10">
+        <v>3</v>
+      </c>
+      <c r="J4" s="10">
+        <v>30</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="M4" s="8">
+        <v>26</v>
+      </c>
+      <c r="N4" s="8">
+        <v>3</v>
+      </c>
+      <c r="O4" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="P4" s="8">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A5" s="10">
+        <v>36</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="10">
+        <v>2</v>
+      </c>
+      <c r="F5" s="10">
+        <v>2</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0</v>
+      </c>
+      <c r="H5" s="10">
+        <v>1</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0</v>
+      </c>
+      <c r="J5" s="10">
+        <v>14</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="M5" s="8">
+        <v>10.5</v>
+      </c>
+      <c r="N5" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="O5" s="8">
+        <v>1</v>
+      </c>
+      <c r="P5" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A6" s="10">
+        <v>12</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="10">
+        <v>2</v>
+      </c>
+      <c r="F6" s="10">
+        <v>2</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0</v>
+      </c>
+      <c r="J6" s="10">
+        <v>7</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="M6" s="8">
+        <v>13.5</v>
+      </c>
+      <c r="N6" s="8">
+        <v>6</v>
+      </c>
+      <c r="O6" s="8">
+        <v>1</v>
+      </c>
+      <c r="P6" s="8">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A7" s="10">
+        <v>55</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="10">
+        <v>1</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0</v>
+      </c>
+      <c r="J7" s="10">
+        <v>2</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A8" s="10">
+        <v>90</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="10">
+        <v>4</v>
+      </c>
+      <c r="F8" s="10">
+        <v>5</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10">
+        <v>2</v>
+      </c>
+      <c r="I8" s="10">
+        <v>1</v>
+      </c>
+      <c r="J8" s="10">
+        <v>3</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="M8" s="8">
+        <v>27.5</v>
+      </c>
+      <c r="N8" s="8">
+        <v>9</v>
+      </c>
+      <c r="O8" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="P8" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="10">
+        <v>1</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10">
+        <v>1</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0</v>
+      </c>
+      <c r="J9" s="10">
+        <v>4</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="M9" s="8">
+        <v>22</v>
+      </c>
+      <c r="N9" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="O9" s="8">
+        <v>0</v>
+      </c>
+      <c r="P9" s="8">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A10" s="10">
+        <v>30</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="10">
+        <v>6</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="M10" s="8">
+        <v>33.5</v>
+      </c>
+      <c r="N10" s="8">
+        <v>12.5</v>
+      </c>
+      <c r="O10" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="P10" s="8">
+        <v>10.5</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A11" s="10">
+        <v>7</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="10">
+        <v>5</v>
+      </c>
+      <c r="F11" s="10">
+        <v>2</v>
+      </c>
+      <c r="G11" s="10">
+        <v>3</v>
+      </c>
+      <c r="H11" s="10">
+        <v>1</v>
+      </c>
+      <c r="I11" s="10">
+        <v>1</v>
+      </c>
+      <c r="J11" s="10">
+        <v>19</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="8">
+        <v>2</v>
+      </c>
+      <c r="M11" s="8">
+        <v>28</v>
+      </c>
+      <c r="N11" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="O11" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="P11" s="8">
+        <v>11.5</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A12" s="10">
+        <v>0</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="10">
+        <v>10</v>
+      </c>
+      <c r="F12" s="10">
+        <v>2</v>
+      </c>
+      <c r="G12" s="10">
+        <v>1</v>
+      </c>
+      <c r="H12" s="10">
+        <v>0</v>
+      </c>
+      <c r="I12" s="10">
+        <v>3</v>
+      </c>
+      <c r="J12" s="10">
+        <v>26</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="M12" s="8">
+        <v>20</v>
+      </c>
+      <c r="N12" s="8">
+        <v>1</v>
+      </c>
+      <c r="O12" s="8">
+        <v>0</v>
+      </c>
+      <c r="P12" s="8">
+        <v>14</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A13" s="10"/>
+      <c r="B13" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10">
+        <v>6</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A14" s="10">
+        <v>0</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="10">
+        <v>3</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0</v>
+      </c>
+      <c r="G14" s="10">
+        <v>3</v>
+      </c>
+      <c r="H14" s="10">
+        <v>4</v>
+      </c>
+      <c r="I14" s="10">
+        <v>4</v>
+      </c>
+      <c r="J14" s="10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A15" s="10">
+        <v>99</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="10">
+        <v>4</v>
+      </c>
+      <c r="F15" s="10">
+        <v>3</v>
+      </c>
+      <c r="G15" s="10">
+        <v>3</v>
+      </c>
+      <c r="H15" s="10">
+        <v>2</v>
+      </c>
+      <c r="I15" s="10">
+        <v>0</v>
+      </c>
+      <c r="J15" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A16" s="10">
+        <v>42</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="10">
+        <v>1</v>
+      </c>
+      <c r="F16" s="10">
+        <v>4</v>
+      </c>
+      <c r="G16" s="10">
+        <v>2</v>
+      </c>
+      <c r="H16" s="10">
+        <v>0</v>
+      </c>
+      <c r="I16" s="10">
+        <v>2</v>
+      </c>
+      <c r="J16" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A17" s="10">
+        <v>90</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="10">
+        <v>6</v>
+      </c>
+      <c r="F17" s="10">
+        <v>2</v>
+      </c>
+      <c r="G17" s="10">
+        <v>4</v>
+      </c>
+      <c r="H17" s="10">
+        <v>1</v>
+      </c>
+      <c r="I17" s="10">
+        <v>1</v>
+      </c>
+      <c r="J17" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A18" s="10">
+        <v>4</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="10">
+        <v>3</v>
+      </c>
+      <c r="F18" s="10">
+        <v>9</v>
+      </c>
+      <c r="G18" s="10">
+        <v>1</v>
+      </c>
+      <c r="H18" s="10">
+        <v>2</v>
+      </c>
+      <c r="I18" s="10">
+        <v>3</v>
+      </c>
+      <c r="J18" s="10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A19" s="10">
+        <v>7</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="10">
+        <v>3</v>
+      </c>
+      <c r="F19" s="10">
+        <v>1</v>
+      </c>
+      <c r="G19" s="10">
+        <v>1</v>
+      </c>
+      <c r="H19" s="10">
+        <v>0</v>
+      </c>
+      <c r="I19" s="10">
+        <v>0</v>
+      </c>
+      <c r="J19" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A20" s="10">
+        <v>30</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="10">
+        <v>0</v>
+      </c>
+      <c r="F20" s="10">
+        <v>0</v>
+      </c>
+      <c r="G20" s="10">
+        <v>4</v>
+      </c>
+      <c r="H20" s="10">
+        <v>1</v>
+      </c>
+      <c r="I20" s="10">
+        <v>0</v>
+      </c>
+      <c r="J20" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A21" s="10">
+        <v>8</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="10">
+        <v>7</v>
+      </c>
+      <c r="F21" s="10">
+        <v>0</v>
+      </c>
+      <c r="G21" s="10">
+        <v>1</v>
+      </c>
+      <c r="H21" s="10">
+        <v>2</v>
+      </c>
+      <c r="I21" s="10">
+        <v>0</v>
+      </c>
+      <c r="J21" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A22" s="10">
+        <v>41</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="10">
+        <v>1</v>
+      </c>
+      <c r="F22" s="10">
+        <v>2</v>
+      </c>
+      <c r="G22" s="10">
+        <v>0</v>
+      </c>
+      <c r="H22" s="10">
+        <v>1</v>
+      </c>
+      <c r="I22" s="10">
+        <v>0</v>
+      </c>
+      <c r="J22" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A23" s="10">
+        <v>36</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="10">
+        <v>1</v>
+      </c>
+      <c r="F23" s="10">
+        <v>5</v>
+      </c>
+      <c r="G23" s="10">
+        <v>4</v>
+      </c>
+      <c r="H23" s="10">
+        <v>2</v>
+      </c>
+      <c r="I23" s="10">
+        <v>1</v>
+      </c>
+      <c r="J23" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A24" s="10">
+        <v>44</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="10">
+        <v>0</v>
+      </c>
+      <c r="F24" s="10">
+        <v>0</v>
+      </c>
+      <c r="G24" s="10">
+        <v>0</v>
+      </c>
+      <c r="H24" s="10">
+        <v>0</v>
+      </c>
+      <c r="I24" s="10">
+        <v>0</v>
+      </c>
+      <c r="J24" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10">
+        <v>6</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10">
+        <v>35</v>
+      </c>
+      <c r="F26" s="10">
+        <v>26</v>
+      </c>
+      <c r="G26" s="10">
+        <v>23</v>
+      </c>
+      <c r="H26" s="10">
+        <v>15</v>
+      </c>
+      <c r="I26" s="10">
+        <v>4</v>
+      </c>
+      <c r="J26" s="10">
+        <v>11</v>
+      </c>
+      <c r="K26" s="10">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A29" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A30" s="10">
+        <v>2</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="10">
+        <v>5</v>
+      </c>
+      <c r="F30" s="10">
+        <v>12</v>
+      </c>
+      <c r="G30" s="10">
+        <v>0</v>
+      </c>
+      <c r="H30" s="10">
+        <v>3</v>
+      </c>
+      <c r="I30" s="10">
+        <v>0</v>
+      </c>
+      <c r="J30" s="10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A31" s="10">
+        <v>23</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="10">
+        <v>8</v>
+      </c>
+      <c r="F31" s="10">
+        <v>11</v>
+      </c>
+      <c r="G31" s="10">
+        <v>2</v>
+      </c>
+      <c r="H31" s="10">
+        <v>1</v>
+      </c>
+      <c r="I31" s="10">
+        <v>3</v>
+      </c>
+      <c r="J31" s="10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A32" s="10">
+        <v>14</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="10">
+        <v>0</v>
+      </c>
+      <c r="F32" s="10">
+        <v>1</v>
+      </c>
+      <c r="G32" s="10">
+        <v>3</v>
+      </c>
+      <c r="H32" s="10">
+        <v>0</v>
+      </c>
+      <c r="I32" s="10">
+        <v>0</v>
+      </c>
+      <c r="J32" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A33" s="10">
+        <v>0</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="10">
+        <v>15</v>
+      </c>
+      <c r="F33" s="10">
+        <v>2</v>
+      </c>
+      <c r="G33" s="10">
+        <v>4</v>
+      </c>
+      <c r="H33" s="10">
+        <v>2</v>
+      </c>
+      <c r="I33" s="10">
+        <v>0</v>
+      </c>
+      <c r="J33" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A34" s="10">
+        <v>13</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="10">
+        <v>9</v>
+      </c>
+      <c r="F34" s="10">
+        <v>1</v>
+      </c>
+      <c r="G34" s="10">
+        <v>1</v>
+      </c>
+      <c r="H34" s="10">
+        <v>0</v>
+      </c>
+      <c r="I34" s="10">
+        <v>0</v>
+      </c>
+      <c r="J34" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A35" s="10">
+        <v>3</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="10">
+        <v>1</v>
+      </c>
+      <c r="F35" s="10">
+        <v>0</v>
+      </c>
+      <c r="G35" s="10">
+        <v>1</v>
+      </c>
+      <c r="H35" s="10">
+        <v>0</v>
+      </c>
+      <c r="I35" s="10">
+        <v>0</v>
+      </c>
+      <c r="J35" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A36" s="10">
+        <v>8</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="10">
+        <v>3</v>
+      </c>
+      <c r="F36" s="10">
+        <v>0</v>
+      </c>
+      <c r="G36" s="10">
+        <v>0</v>
+      </c>
+      <c r="H36" s="10">
+        <v>0</v>
+      </c>
+      <c r="I36" s="10">
+        <v>0</v>
+      </c>
+      <c r="J36" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A37" s="10">
+        <v>24</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="10">
+        <v>3</v>
+      </c>
+      <c r="F37" s="10">
+        <v>1</v>
+      </c>
+      <c r="G37" s="10">
+        <v>2</v>
+      </c>
+      <c r="H37" s="10">
+        <v>0</v>
+      </c>
+      <c r="I37" s="10">
+        <v>0</v>
+      </c>
+      <c r="J37" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A38" s="10">
+        <v>4</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="10">
+        <v>2</v>
+      </c>
+      <c r="F38" s="10">
+        <v>1</v>
+      </c>
+      <c r="G38" s="10">
+        <v>3</v>
+      </c>
+      <c r="H38" s="10">
+        <v>1</v>
+      </c>
+      <c r="I38" s="10">
+        <v>0</v>
+      </c>
+      <c r="J38" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A40" s="10">
+        <v>2</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="10">
+        <v>4</v>
+      </c>
+      <c r="F40" s="10">
+        <v>6</v>
+      </c>
+      <c r="G40" s="10">
+        <v>0</v>
+      </c>
+      <c r="H40" s="10">
+        <v>0</v>
+      </c>
+      <c r="I40" s="10">
+        <v>3</v>
+      </c>
+      <c r="J40" s="10">
+        <v>23</v>
+      </c>
+      <c r="K40" s="10"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A41" s="10">
+        <v>23</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="10">
+        <v>7</v>
+      </c>
+      <c r="F41" s="10">
+        <v>12</v>
+      </c>
+      <c r="G41" s="10">
+        <v>1</v>
+      </c>
+      <c r="H41" s="10">
+        <v>0</v>
+      </c>
+      <c r="I41" s="10">
+        <v>2</v>
+      </c>
+      <c r="J41" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A42" s="10">
+        <v>0</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="10">
+        <v>8</v>
+      </c>
+      <c r="F42" s="10">
+        <v>1</v>
+      </c>
+      <c r="G42" s="10">
+        <v>0</v>
+      </c>
+      <c r="H42" s="10">
+        <v>2</v>
+      </c>
+      <c r="I42" s="10">
+        <v>1</v>
+      </c>
+      <c r="J42" s="10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A43" s="10">
+        <v>5</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="10">
+        <v>2</v>
+      </c>
+      <c r="F43" s="10">
+        <v>1</v>
+      </c>
+      <c r="G43" s="10">
+        <v>3</v>
+      </c>
+      <c r="H43" s="10">
+        <v>2</v>
+      </c>
+      <c r="I43" s="10">
+        <v>0</v>
+      </c>
+      <c r="J43" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A44" s="10">
+        <v>13</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="10">
+        <v>14</v>
+      </c>
+      <c r="F44" s="10">
+        <v>1</v>
+      </c>
+      <c r="G44" s="10">
+        <v>1</v>
+      </c>
+      <c r="H44" s="10">
+        <v>3</v>
+      </c>
+      <c r="I44" s="10">
+        <v>0</v>
+      </c>
+      <c r="J44" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A45" s="10">
+        <v>3</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="10">
+        <v>1</v>
+      </c>
+      <c r="F45" s="10">
+        <v>1</v>
+      </c>
+      <c r="G45" s="10">
+        <v>0</v>
+      </c>
+      <c r="H45" s="10">
+        <v>0</v>
+      </c>
+      <c r="I45" s="10">
+        <v>0</v>
+      </c>
+      <c r="J45" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A46" s="10">
+        <v>8</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="10">
+        <v>2</v>
+      </c>
+      <c r="F46" s="10">
+        <v>0</v>
+      </c>
+      <c r="G46" s="10">
+        <v>1</v>
+      </c>
+      <c r="H46" s="10">
+        <v>0</v>
+      </c>
+      <c r="I46" s="10">
+        <v>1</v>
+      </c>
+      <c r="J46" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A47" s="10">
+        <v>24</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="10">
+        <v>3</v>
+      </c>
+      <c r="F47" s="10">
+        <v>0</v>
+      </c>
+      <c r="G47" s="10">
+        <v>0</v>
+      </c>
+      <c r="H47" s="10">
+        <v>0</v>
+      </c>
+      <c r="I47" s="10">
+        <v>0</v>
+      </c>
+      <c r="J47" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A48" s="10">
+        <v>1</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="10">
+        <v>0</v>
+      </c>
+      <c r="F48" s="10">
+        <v>0</v>
+      </c>
+      <c r="G48" s="10">
+        <v>0</v>
+      </c>
+      <c r="H48" s="10">
+        <v>0</v>
+      </c>
+      <c r="I48" s="10">
+        <v>1</v>
+      </c>
+      <c r="J48" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A49" s="10">
+        <v>14</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" s="10">
+        <v>0</v>
+      </c>
+      <c r="F49" s="10">
+        <v>0</v>
+      </c>
+      <c r="G49" s="10">
+        <v>0</v>
+      </c>
+      <c r="H49" s="10">
+        <v>0</v>
+      </c>
+      <c r="I49" s="10">
+        <v>0</v>
+      </c>
+      <c r="J49" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A50" s="10">
+        <v>12</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" s="10">
+        <v>0</v>
+      </c>
+      <c r="F50" s="10">
+        <v>0</v>
+      </c>
+      <c r="G50" s="10">
+        <v>0</v>
+      </c>
+      <c r="H50" s="10">
+        <v>0</v>
+      </c>
+      <c r="I50" s="10">
+        <v>0</v>
+      </c>
+      <c r="J50" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A51" s="10">
+        <v>4</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" s="10">
+        <v>3</v>
+      </c>
+      <c r="F51" s="10">
+        <v>2</v>
+      </c>
+      <c r="G51" s="10">
+        <v>0</v>
+      </c>
+      <c r="H51" s="10">
+        <v>0</v>
+      </c>
+      <c r="I51" s="10">
+        <v>0</v>
+      </c>
+      <c r="J51" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C53" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F53" s="10">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>